--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="484">
   <si>
     <t>Property</t>
   </si>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MedicationAdministration</t>
+    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationAdministrationBase</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -679,10 +679,6 @@
     <t>MedicationAdministration.medication[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference</t>
-  </si>
-  <si>
     <t>What was administered</t>
   </si>
   <si>
@@ -941,7 +937,7 @@
     <t>MedicationAdministration.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
 </t>
   </si>
   <si>
@@ -968,106 +964,10 @@
     <t>PID-3-Patient ID List</t>
   </si>
   <si>
-    <t>MedicationAdministration.subject.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL　リテラル参照、相対、内部、または絶対URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.
-他のリソースが見つかった場合そのいリソース箇所への参照。参照は相対参照である場合がある。その場合、参照はサービスベースURLに相対的であるか、リソースが見つかった場所を解決する絶対URL。参照はバージョン固有である場合とそうでない場合がある。参照がFHIR　RESTfulサーバーを参照していない場合は、バージョン固有であると見なす必要がある。内部フラグメント参照（「＃」で始まる）は、含まれているリソースを参照する。</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")　参照リソースのタイプ</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).
-参照のターゲットの予想されるタイプ。 Reference.typeとReference.referenceの両方が入力され、Reference.referenceがFHIR URLである場合、両方が一貫している必要がある。
-タイプは、この参照が参照するタイプであるリソース定義の正規URLである。参照は、http：//hl7.org/fhir/StructureDefinition/に関連するURLとなる。例： 「患者」リソースの場合は、http://hl7.org/fhir/StructureDefinition/Patient　となる。絶対URLは、論理モデルでのみ許可される（また、論理モデルの参照でのみ使用でき、リソースでは使用できない）。</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known　リテラル参照（reference要素）で記述できない場合の論理ID参照</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.
-ターゲットリソースの識別子。これは、他のリソースを直接参照する方法がない場合に使用される。これは、リソースが表すエンティティがFHIRサーバーを介して利用できないため、またはリソースの作成者が既知の識別子を実際の場所に変換する方法がないためである 。 Reference.identifierが実際にFHIRインスタンスとして公開されているものを指している必要はないが、FHIRインスタンスとして公開されることが期待されるビジネス概念を指している必要があり、そのインスタンスは参照で許可されているFHIRリソースタイプとなる。</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).
-参照の代わりに識別子が提供される場合、参照を処理するシステムは、識別子が使用されるビジネスコンテキストを理解している場合にのみ、識別子を参照に解決できる。これはグローバルな場合もあるが（たとえば、国民ID）、そうでない場合もある。このため、参照を操作するために説明されている便利なメカニズム（チェーン、インクルードなど）はどれも不可能であり、サーバーが参照を解決できると期待されるべきではない。サーバーは、識別子ベースの参照をそのまま受け入れ、解決したり、拒否したりする場合がある。CapabilityStatement.rest.resource.referencePolicyを参照。
-識別子とリテラル参照の両方が提供されている場合は、リテラル参照が優先される。リソースを処理するアプリケーションは、識別子がリテラル参照と一致することを確認できるが、確認することは必須ではない。
-論理参照をリテラル参照に変換するアプリケーションは、論理参照を存在させたままにするか、削除するかを選択できる。
-参照は、FHIRリソースとして表現できる可能性のある構造を指すことを目的としているが、実際のFHIRリソースインスタンスとして存在する必要はない。ただし、アプリケーションが参照のターゲットを実際に見つけたい場合を除く。識別子と呼ばれるコンテンツは、参照に許可されるリソースタイプの制限によって暗示される論理的な制約を満たす必要がある。たとえば、タイプがReference（Observation | DiagnosticReport）の場合、薬の処方箋の識別子を送信することは正当ではない。 Reference.identifierのユースケースの1つは、FHIR表現が存在しない状況である（タイプはReference（Any）である）。</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource　リソースの代替テキスト</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.
-リソース参照に加えてリソースを識別するプレーンテキストの説明。</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.
-これは通常、参照されるリソースのResource.textと同じではない。目的は、参照されているものを特定することであり、完全に説明することではない。</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>MedicationAdministration.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -1211,7 +1111,7 @@
     <t>MedicationAdministration.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson|Device)
 </t>
   </si>
   <si>
@@ -1255,7 +1155,7 @@
     <t>MedicationAdministration.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Condition|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|http://jpfhir.jp/fhir/core/StructureDefinition/JP_DiagnosticReport_Common)
 </t>
   </si>
   <si>
@@ -1414,10 +1314,7 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
-    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1436,10 +1333,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1451,15 +1345,13 @@
     <t>MedicationAdministration.dosage.method</t>
   </si>
   <si>
-    <t>How drug was administered　投与方法</t>
-  </si>
-  <si>
-    <t>A coded value indicating the method by which the medication is intended to be or was introduced into or on the body.  This attribute will most often NOT be populated.  It is most commonly used for injections.  For example, Slow Push, Deep IV.
-薬物が体内に導入されることを意図している、または体内に導入された方法を示すコード化された値。ほとんどの場合、この属性は入力されないが、注射では最も一般的に使用される。たとえば、スロープッシュ（ゆっくり注射）、ディープIV（深部静脈注射）。</t>
-  </si>
-  <si>
-    <t>One of the reasons this attribute is not used often, is that the method is often pre-coordinated with the route and/or form of administration.  This means the codes used in route or form may pre-coordinate the method in the route code or the form code.  The implementation decision about what coding system to use for route or form code will determine how frequently the method code will be populated e.g. if route or form code pre-coordinate method code, then this attribute will not be populated often; if there is no pre-coordination then method code may  be used frequently.
-この属性がふつう使用されない理由の1つは、メソッドが管理のルートや形式と事前に調整されていることが多いためである。これは、ルートまたはフォーム（剤型）で使用されるコードが、ルートコードまたは剤型コードによってメソッドが事前に決まる可能性があることを意味している。ルートコードまたは剤型コードに使用するコーディングシステムに関する実装の決定により、メソッドコードが入力される頻度が決まる。ルートコードまたは剤型コードによってメソッドコードが事前に決まる場合、この属性はふつう入力されない。決まらない場合は、メソッドコードが使用される可能性がある。</t>
+    <t>投与方法</t>
+  </si>
+  <si>
+    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+  </si>
+  <si>
+    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
   </si>
   <si>
     <t>A coded concept describing the technique by which the medicine is administered.</t>
@@ -1474,10 +1366,104 @@
     <t>RXR-4-Administration Method</t>
   </si>
   <si>
+    <t>MedicationAdministration.dosage.method.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>unitDigit1</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コード</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コードを識別するURI。</t>
+  </si>
+  <si>
+    <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。</t>
+  </si>
+  <si>
+    <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.system</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200250.2.2.20.30</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.version</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.code</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.display</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.userSelected</t>
+  </si>
+  <si>
+    <t>unitDigit2</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コード</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200250.2.2.20.40</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.text</t>
+  </si>
+  <si>
+    <t>投与⽅法のテキスト表現</t>
+  </si>
+  <si>
+    <t>投与⽅法のテキスト表現。コードで指定できない場合、本要素で文字列として指定してもよい。</t>
+  </si>
+  <si>
+    <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
+  </si>
+  <si>
+    <t>ターミノロジー由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.dose</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
 </t>
   </si>
   <si>
@@ -1488,144 +1474,17 @@
 1回の投与イベントで投与される薬剤の量。この値は、投与が錠剤の飲み込みや注射などの本質的に瞬間的なイベントである場合に使用する。</t>
   </si>
   <si>
-    <t>If the administration is not instantaneous (rate is present), this can be specified to convey the total amount administered over period of time of a single administration.</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>RXA-6 Administered Amount / RXA-7 Administered Units</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>Not allowed to be used in this context</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
+    <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.rate[x]</t>
@@ -1651,6 +1510,32 @@
   </si>
   <si>
     <t>RXA-12-Administered Per (Time Unit)</t>
+  </si>
+  <si>
+    <t>rateRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio}
+</t>
+  </si>
+  <si>
+    <t>単位時間あたり薬剤の投与量</t>
+  </si>
+  <si>
+    <t>単位時間あたり薬剤の投与量について薬剤単位をバインディングした型である。</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+  </si>
+  <si>
+    <t>RTO</t>
+  </si>
+  <si>
+    <t>rateQuantity</t>
+  </si>
+  <si>
+    <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -1977,7 +1862,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN73"/>
+  <dimension ref="A1:AN82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1986,7 +1871,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.0859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.66015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2009,8 +1894,8 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.140625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.4765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -4329,16 +4214,16 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4367,23 +4252,23 @@
         <v>197</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA21" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>209</v>
@@ -4401,16 +4286,16 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4421,7 +4306,7 @@
         <v>209</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>77</v>
@@ -4446,13 +4331,13 @@
         <v>193</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4481,10 +4366,10 @@
         <v>110</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4517,16 +4402,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4534,7 +4419,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4560,10 +4445,10 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4614,25 +4499,25 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4646,7 +4531,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4672,10 +4557,10 @@
         <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>159</v>
@@ -4719,7 +4604,7 @@
         <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
@@ -4728,7 +4613,7 @@
         <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4746,7 +4631,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4760,7 +4645,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4783,19 +4668,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4844,7 +4729,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4862,13 +4747,13 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4876,7 +4761,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4902,10 +4787,10 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4956,25 +4841,25 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4988,7 +4873,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5014,10 +4899,10 @@
         <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>159</v>
@@ -5061,7 +4946,7 @@
         <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
@@ -5070,7 +4955,7 @@
         <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5088,7 +4973,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5102,7 +4987,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5128,16 +5013,16 @@
         <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5186,7 +5071,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5204,13 +5089,13 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5218,7 +5103,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5244,13 +5129,13 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5300,7 +5185,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5318,13 +5203,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5332,7 +5217,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5358,14 +5243,14 @@
         <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5414,7 +5299,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5432,13 +5317,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5446,7 +5331,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5472,14 +5357,14 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5528,7 +5413,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5546,13 +5431,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5560,7 +5445,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5583,19 +5468,19 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5644,7 +5529,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5662,13 +5547,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5676,7 +5561,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5702,16 +5587,16 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5760,7 +5645,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5778,13 +5663,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5795,7 +5680,7 @@
         <v>209</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>77</v>
@@ -5817,16 +5702,16 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5891,16 +5776,16 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5908,7 +5793,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5931,16 +5816,16 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5990,7 +5875,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>86</v>
@@ -6005,16 +5890,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6022,7 +5907,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6045,15 +5930,17 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>303</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>226</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -6102,7 +5989,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>228</v>
+        <v>302</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6114,19 +6001,19 @@
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6134,11 +6021,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6157,16 +6044,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>131</v>
+        <v>311</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>231</v>
+        <v>312</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>232</v>
+        <v>313</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>159</v>
+        <v>297</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6204,19 +6091,19 @@
         <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>234</v>
+        <v>310</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6228,16 +6115,16 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>229</v>
+        <v>314</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6248,7 +6135,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6256,7 +6143,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>86</v>
@@ -6271,16 +6158,16 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>316</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6330,31 +6217,31 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>129</v>
+        <v>321</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6362,7 +6249,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6373,7 +6260,7 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>77</v>
@@ -6385,17 +6272,15 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6420,13 +6305,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6444,13 +6329,13 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>77</v>
@@ -6459,16 +6344,16 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>129</v>
+        <v>329</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6476,7 +6361,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6496,20 +6381,18 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>320</v>
+        <v>225</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6558,7 +6441,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6570,13 +6453,13 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>228</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6590,18 +6473,18 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6610,19 +6493,19 @@
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>326</v>
+        <v>230</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>231</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>328</v>
+        <v>159</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6672,25 +6555,25 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>329</v>
+        <v>233</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6704,41 +6587,43 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>331</v>
+        <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6786,31 +6671,31 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>335</v>
+        <v>129</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6818,7 +6703,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6829,7 +6714,7 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -6841,7 +6726,7 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>339</v>
+        <v>193</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>340</v>
@@ -6849,9 +6734,7 @@
       <c r="L43" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>298</v>
-      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6876,13 +6759,13 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6900,13 +6783,13 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>77</v>
@@ -6915,13 +6798,13 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6932,7 +6815,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6955,17 +6838,15 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7014,7 +6895,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>86</v>
@@ -7029,16 +6910,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7066,16 +6947,16 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7102,13 +6983,13 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -7141,13 +7022,13 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>359</v>
@@ -7169,7 +7050,7 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -7181,15 +7062,17 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>361</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>226</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7238,50 +7121,50 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>228</v>
+        <v>360</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>229</v>
+        <v>366</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7293,18 +7176,20 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>131</v>
+        <v>370</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>231</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>232</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7352,31 +7237,31 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>234</v>
+        <v>369</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>229</v>
+        <v>376</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7384,11 +7269,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7401,26 +7286,24 @@
         <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>131</v>
+        <v>379</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7468,7 +7351,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7480,19 +7363,19 @@
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>129</v>
+        <v>382</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>383</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7500,7 +7383,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7511,7 +7394,7 @@
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
@@ -7523,15 +7406,17 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>193</v>
+        <v>385</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
@@ -7556,13 +7441,13 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7580,13 +7465,13 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
@@ -7595,10 +7480,10 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7612,7 +7497,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7620,7 +7505,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>86</v>
@@ -7632,16 +7517,16 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7692,10 +7577,10 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>86</v>
@@ -7704,13 +7589,13 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>394</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>378</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7724,7 +7609,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7735,7 +7620,7 @@
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -7747,13 +7632,13 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>381</v>
+        <v>225</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>382</v>
+        <v>226</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7780,13 +7665,13 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7804,31 +7689,31 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>380</v>
+        <v>227</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>386</v>
+        <v>228</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>387</v>
+        <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7836,11 +7721,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7859,16 +7744,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>389</v>
+        <v>131</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>390</v>
+        <v>230</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>391</v>
+        <v>231</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>392</v>
+        <v>159</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7918,7 +7803,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>388</v>
+        <v>233</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7930,62 +7815,62 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>393</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>394</v>
+        <v>228</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>395</v>
+        <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>396</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>398</v>
+        <v>131</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>336</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>337</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>159</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>402</v>
+        <v>160</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -8034,31 +7919,31 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>404</v>
+        <v>129</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>405</v>
+        <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8066,7 +7951,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8077,7 +7962,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -8089,17 +7974,15 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>407</v>
+        <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8148,13 +8031,13 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
@@ -8166,13 +8049,13 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8180,7 +8063,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8191,7 +8074,7 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8203,16 +8086,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>413</v>
+        <v>193</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8238,13 +8121,11 @@
         <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>407</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
@@ -8262,13 +8143,13 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>77</v>
@@ -8277,16 +8158,16 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>409</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8294,7 +8175,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8317,15 +8198,17 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>353</v>
+        <v>193</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
@@ -8350,13 +8233,11 @@
         <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8374,7 +8255,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8386,19 +8267,19 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>422</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8406,7 +8287,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8429,16 +8310,20 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>226</v>
+        <v>417</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8462,13 +8347,13 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>77</v>
+        <v>421</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8486,7 +8371,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>228</v>
+        <v>416</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8498,19 +8383,19 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>229</v>
+        <v>422</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8518,18 +8403,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8541,17 +8426,15 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8600,25 +8483,25 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8632,11 +8515,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>363</v>
+        <v>156</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8649,26 +8532,24 @@
         <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>364</v>
+        <v>230</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>365</v>
+        <v>231</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N59" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8704,19 +8585,19 @@
         <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>366</v>
+        <v>233</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8734,7 +8615,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8748,7 +8629,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8759,7 +8640,7 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -8768,19 +8649,23 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8816,25 +8701,23 @@
         <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>427</v>
+        <v>240</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>77</v>
@@ -8846,13 +8729,13 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>430</v>
+        <v>241</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8860,9 +8743,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8880,10 +8765,10 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>432</v>
@@ -8894,7 +8779,9 @@
       <c r="M61" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="N61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8918,11 +8805,9 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
         <v>436</v>
       </c>
@@ -8942,13 +8827,13 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>431</v>
+        <v>240</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>77</v>
@@ -8960,13 +8845,13 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>437</v>
+        <v>241</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>438</v>
+        <v>242</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8974,7 +8859,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8997,17 +8882,15 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>440</v>
+        <v>225</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>77</v>
@@ -9032,13 +8915,13 @@
         <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>442</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -9056,7 +8939,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>439</v>
+        <v>227</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9068,19 +8951,19 @@
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>444</v>
+        <v>228</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9088,18 +8971,18 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -9111,16 +8994,16 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>447</v>
+        <v>230</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>448</v>
+        <v>231</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>449</v>
+        <v>159</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9146,55 +9029,55 @@
         <v>77</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>450</v>
+        <v>77</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>446</v>
+        <v>233</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>452</v>
+        <v>228</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>453</v>
+        <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9202,7 +9085,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9210,7 +9093,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>86</v>
@@ -9222,27 +9105,29 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>455</v>
+        <v>100</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>456</v>
+        <v>246</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>457</v>
+        <v>247</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>77</v>
+        <v>440</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>77</v>
@@ -9284,7 +9169,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>454</v>
+        <v>250</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9302,13 +9187,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>459</v>
+        <v>251</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>460</v>
+        <v>252</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9316,7 +9201,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9336,18 +9221,20 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9396,7 +9283,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9408,19 +9295,19 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9428,18 +9315,18 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
@@ -9448,21 +9335,21 @@
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9498,43 +9385,43 @@
         <v>77</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9542,7 +9429,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9565,19 +9452,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>464</v>
+        <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>465</v>
+        <v>268</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>468</v>
+        <v>270</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9626,7 +9511,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>469</v>
+        <v>271</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9644,13 +9529,13 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>470</v>
+        <v>272</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>471</v>
+        <v>273</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9658,7 +9543,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9669,36 +9554,36 @@
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>106</v>
+        <v>275</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>473</v>
+        <v>276</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="N68" t="s" s="2">
-        <v>475</v>
+        <v>279</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P68" t="s" s="2">
-        <v>476</v>
-      </c>
+      <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9718,13 +9603,13 @@
         <v>77</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>477</v>
+        <v>77</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>478</v>
+        <v>77</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9742,7 +9627,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>479</v>
+        <v>280</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9760,13 +9645,13 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>480</v>
+        <v>281</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>481</v>
+        <v>282</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9774,9 +9659,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B69" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="C69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9797,17 +9684,19 @@
         <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>483</v>
+        <v>446</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="N69" t="s" s="2">
-        <v>485</v>
+        <v>435</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9832,13 +9721,11 @@
         <v>77</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>77</v>
+        <v>448</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -9856,13 +9743,13 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>486</v>
+        <v>240</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>77</v>
@@ -9874,13 +9761,13 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>487</v>
+        <v>241</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>488</v>
+        <v>242</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9888,7 +9775,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>489</v>
+        <v>437</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9908,21 +9795,19 @@
         <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>490</v>
+        <v>225</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>491</v>
+        <v>226</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>492</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>77</v>
       </c>
@@ -9970,7 +9855,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>493</v>
+        <v>227</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -9979,22 +9864,22 @@
         <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>494</v>
+        <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>495</v>
+        <v>228</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>488</v>
+        <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10002,18 +9887,18 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>496</v>
+        <v>438</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>77</v>
@@ -10022,23 +9907,21 @@
         <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>497</v>
+        <v>230</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>498</v>
+        <v>231</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>77</v>
       </c>
@@ -10062,53 +9945,55 @@
         <v>77</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X71" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y71" t="s" s="2">
-        <v>501</v>
+        <v>77</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>502</v>
+        <v>233</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>503</v>
+        <v>228</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>488</v>
+        <v>77</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10116,7 +10001,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>504</v>
+        <v>439</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10124,7 +10009,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>86</v>
@@ -10136,27 +10021,29 @@
         <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>505</v>
+        <v>100</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>506</v>
+        <v>246</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>507</v>
+        <v>247</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="R72" t="s" s="2">
         <v>77</v>
@@ -10198,7 +10085,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>504</v>
+        <v>250</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10216,13 +10103,13 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>509</v>
+        <v>251</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>510</v>
+        <v>252</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10230,7 +10117,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>511</v>
+        <v>441</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10241,7 +10128,7 @@
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>77</v>
@@ -10250,19 +10137,19 @@
         <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>512</v>
+        <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>513</v>
+        <v>254</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>514</v>
+        <v>255</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>515</v>
+        <v>256</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10312,13 +10199,13 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>511</v>
+        <v>257</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>77</v>
@@ -10330,15 +10217,1047 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>516</v>
+        <v>258</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AN73" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AB79" s="2"/>
+      <c r="AC79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="485">
   <si>
     <t>Property</t>
   </si>
@@ -679,19 +679,26 @@
     <t>MedicationAdministration.medication[x]</t>
   </si>
   <si>
-    <t>What was administered</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>Codes identifying substance or product that can be administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>What medication was supplied　医薬品</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
+投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
+ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
+厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
++なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
++ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。+ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。+また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -713,6 +720,18 @@
     <t>RXA-5-Administered Code</t>
   </si>
   <si>
+    <t>medicationReference</t>
+  </si>
+  <si>
+    <t>What was administered</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
     <t>medicationCodeableConcept</t>
   </si>
   <si>
@@ -925,13 +944,6 @@
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
-</t>
   </si>
   <si>
     <t>MedicationAdministration.subject</t>
@@ -4214,16 +4226,16 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4249,26 +4261,26 @@
         <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA21" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>209</v>
@@ -4286,16 +4298,16 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4306,7 +4318,7 @@
         <v>209</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>77</v>
@@ -4316,7 +4328,7 @@
         <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>77</v>
@@ -4328,16 +4340,16 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4363,13 +4375,13 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4402,16 +4414,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4419,9 +4431,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4439,18 +4453,20 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4475,13 +4491,13 @@
         <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
@@ -4499,10 +4515,10 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4511,19 +4527,19 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4531,18 +4547,18 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>77</v>
@@ -4554,17 +4570,15 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -4601,37 +4615,37 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4645,15 +4659,15 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>79</v>
@@ -4665,23 +4679,21 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>235</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4717,19 +4729,19 @@
         <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4741,19 +4753,19 @@
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4761,7 +4773,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4769,10 +4781,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
@@ -4781,19 +4793,23 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4841,31 +4857,31 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4873,18 +4889,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>77</v>
@@ -4896,17 +4912,15 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4943,37 +4957,37 @@
         <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4987,18 +5001,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
@@ -5007,23 +5021,21 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5059,43 +5071,43 @@
         <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5103,7 +5115,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5111,7 +5123,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
@@ -5126,18 +5138,20 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5185,7 +5199,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5203,13 +5217,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5217,7 +5231,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5225,7 +5239,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>86</v>
@@ -5240,18 +5254,18 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5299,7 +5313,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5317,13 +5331,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5331,7 +5345,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5354,17 +5368,17 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5413,7 +5427,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5431,13 +5445,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5445,7 +5459,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5468,19 +5482,17 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>275</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5529,7 +5541,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5547,13 +5559,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5561,7 +5573,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5584,19 +5596,19 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>278</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5645,7 +5657,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5663,13 +5675,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5677,11 +5689,9 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5702,18 +5712,20 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>292</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>210</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>211</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5761,10 +5773,10 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>209</v>
+        <v>291</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>86</v>
@@ -5776,16 +5788,16 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>218</v>
+        <v>292</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5793,7 +5805,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5816,16 +5828,16 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5875,7 +5887,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>86</v>
@@ -5890,16 +5902,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5907,7 +5919,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5930,16 +5942,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5989,7 +6001,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6004,16 +6016,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6021,7 +6033,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6044,16 +6056,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6103,7 +6115,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6121,10 +6133,10 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6135,7 +6147,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6158,16 +6170,16 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6217,7 +6229,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>86</v>
@@ -6232,16 +6244,16 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6249,7 +6261,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6272,13 +6284,13 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6329,7 +6341,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6344,16 +6356,16 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6361,7 +6373,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6387,10 +6399,10 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6441,7 +6453,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6459,7 +6471,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6473,7 +6485,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6499,10 +6511,10 @@
         <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>159</v>
@@ -6555,7 +6567,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6573,7 +6585,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6587,11 +6599,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6613,10 +6625,10 @@
         <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>159</v>
@@ -6671,7 +6683,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6703,7 +6715,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6729,10 +6741,10 @@
         <v>193</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6762,10 +6774,10 @@
         <v>197</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6783,7 +6795,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6798,10 +6810,10 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6815,7 +6827,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6838,13 +6850,13 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6895,7 +6907,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>86</v>
@@ -6910,10 +6922,10 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6927,7 +6939,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6953,10 +6965,10 @@
         <v>193</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6986,10 +6998,10 @@
         <v>197</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -7007,7 +7019,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7022,16 +7034,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7039,7 +7051,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7062,16 +7074,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7121,7 +7133,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7136,24 +7148,24 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7176,19 +7188,19 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7237,7 +7249,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7252,16 +7264,16 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7269,7 +7281,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7292,16 +7304,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7351,7 +7363,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7369,13 +7381,13 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7383,7 +7395,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7406,16 +7418,16 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7465,7 +7477,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7480,10 +7492,10 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7497,7 +7509,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7520,13 +7532,13 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7577,7 +7589,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7589,13 +7601,13 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7609,7 +7621,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7635,10 +7647,10 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7689,7 +7701,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7707,7 +7719,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7721,7 +7733,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7747,10 +7759,10 @@
         <v>131</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>159</v>
@@ -7803,7 +7815,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7821,7 +7833,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7835,11 +7847,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7861,10 +7873,10 @@
         <v>131</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>159</v>
@@ -7919,7 +7931,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7951,7 +7963,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7977,10 +7989,10 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8031,7 +8043,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8049,7 +8061,7 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8063,7 +8075,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8089,13 +8101,13 @@
         <v>193</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8125,7 +8137,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
@@ -8143,7 +8155,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8161,13 +8173,13 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8175,7 +8187,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8201,10 +8213,10 @@
         <v>193</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>196</v>
@@ -8237,7 +8249,7 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8255,7 +8267,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8273,13 +8285,13 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8287,7 +8299,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8313,16 +8325,16 @@
         <v>193</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8350,10 +8362,10 @@
         <v>197</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8371,7 +8383,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8389,13 +8401,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8403,7 +8415,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8429,10 +8441,10 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8483,7 +8495,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8501,7 +8513,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8515,7 +8527,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8541,10 +8553,10 @@
         <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>159</v>
@@ -8588,7 +8600,7 @@
         <v>134</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>77</v>
@@ -8597,7 +8609,7 @@
         <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8615,7 +8627,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8629,7 +8641,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8652,19 +8664,19 @@
         <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
@@ -8701,7 +8713,7 @@
         <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
@@ -8711,7 +8723,7 @@
         <v>135</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8729,13 +8741,13 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8743,10 +8755,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>77</v>
@@ -8768,19 +8780,19 @@
         <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -8809,7 +8821,7 @@
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8827,7 +8839,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8845,13 +8857,13 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8859,7 +8871,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8885,10 +8897,10 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8939,7 +8951,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8957,7 +8969,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8971,7 +8983,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8997,10 +9009,10 @@
         <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>159</v>
@@ -9044,7 +9056,7 @@
         <v>134</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>77</v>
@@ -9053,7 +9065,7 @@
         <v>135</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9071,7 +9083,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9085,7 +9097,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9111,23 +9123,23 @@
         <v>100</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>77</v>
@@ -9169,7 +9181,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9187,13 +9199,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9201,7 +9213,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9227,13 +9239,13 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9283,7 +9295,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9301,13 +9313,13 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9315,7 +9327,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9341,14 +9353,14 @@
         <v>106</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9397,7 +9409,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9415,13 +9427,13 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9429,7 +9441,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9455,14 +9467,14 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9511,7 +9523,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9529,13 +9541,13 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9543,7 +9555,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9566,19 +9578,19 @@
         <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9627,7 +9639,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9645,13 +9657,13 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9659,10 +9671,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>77</v>
@@ -9684,19 +9696,19 @@
         <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9725,7 +9737,7 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -9743,7 +9755,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9761,13 +9773,13 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9775,7 +9787,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9801,10 +9813,10 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9855,7 +9867,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -9873,7 +9885,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -9887,7 +9899,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9913,10 +9925,10 @@
         <v>131</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>159</v>
@@ -9960,7 +9972,7 @@
         <v>134</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>77</v>
@@ -9969,7 +9981,7 @@
         <v>135</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -9987,7 +9999,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10001,7 +10013,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10027,23 +10039,23 @@
         <v>100</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="R72" t="s" s="2">
         <v>77</v>
@@ -10085,7 +10097,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10103,13 +10115,13 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10117,7 +10129,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10143,13 +10155,13 @@
         <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10199,7 +10211,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10217,13 +10229,13 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10231,7 +10243,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10257,14 +10269,14 @@
         <v>106</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -10313,7 +10325,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10331,13 +10343,13 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10345,7 +10357,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10371,14 +10383,14 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10427,7 +10439,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10445,13 +10457,13 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10459,7 +10471,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10482,19 +10494,19 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10543,7 +10555,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10561,13 +10573,13 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10575,7 +10587,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10601,16 +10613,16 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>77</v>
@@ -10659,7 +10671,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -10677,13 +10689,13 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10691,7 +10703,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10714,16 +10726,16 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10773,7 +10785,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -10785,19 +10797,19 @@
         <v>142</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -10805,7 +10817,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10828,16 +10840,16 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10875,17 +10887,17 @@
         <v>77</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB79" s="2"/>
       <c r="AC79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -10903,13 +10915,13 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -10917,10 +10929,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>77</v>
@@ -10942,16 +10954,16 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11001,7 +11013,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11013,13 +11025,13 @@
         <v>142</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11033,10 +11045,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>77</v>
@@ -11058,16 +11070,16 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11117,7 +11129,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11129,19 +11141,19 @@
         <v>142</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11149,7 +11161,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11172,16 +11184,16 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11231,7 +11243,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11249,7 +11261,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -280,7 +280,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -742,6 +742,10 @@
   </si>
   <si>
     <t>MedicationAdministration.medication[x].id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4570,13 +4574,13 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4627,7 +4631,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4645,7 +4649,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4659,7 +4663,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4685,10 +4689,10 @@
         <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>159</v>
@@ -4732,7 +4736,7 @@
         <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
@@ -4741,7 +4745,7 @@
         <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4759,7 +4763,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4773,7 +4777,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4796,19 +4800,19 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4857,7 +4861,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4875,13 +4879,13 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4889,7 +4893,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4912,13 +4916,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4969,7 +4973,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4987,7 +4991,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5001,7 +5005,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5027,10 +5031,10 @@
         <v>131</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>159</v>
@@ -5074,7 +5078,7 @@
         <v>134</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
@@ -5083,7 +5087,7 @@
         <v>135</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5101,7 +5105,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5115,7 +5119,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5141,16 +5145,16 @@
         <v>100</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5199,7 +5203,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5217,13 +5221,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5231,7 +5235,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5254,16 +5258,16 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5313,7 +5317,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5331,13 +5335,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5345,7 +5349,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5371,14 +5375,14 @@
         <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5427,7 +5431,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5445,13 +5449,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5459,7 +5463,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5482,17 +5486,17 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5541,7 +5545,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5559,13 +5563,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5573,7 +5577,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5596,19 +5600,19 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5657,7 +5661,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5675,13 +5679,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5689,7 +5693,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5712,19 +5716,19 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5773,7 +5777,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5791,13 +5795,13 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5805,7 +5809,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5828,16 +5832,16 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5887,7 +5891,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>86</v>
@@ -5902,16 +5906,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5919,7 +5923,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5942,16 +5946,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6001,7 +6005,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6016,16 +6020,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6033,7 +6037,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6056,16 +6060,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6115,7 +6119,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6133,10 +6137,10 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6147,7 +6151,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6170,16 +6174,16 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6229,7 +6233,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>86</v>
@@ -6244,16 +6248,16 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6261,7 +6265,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6284,13 +6288,13 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6341,7 +6345,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6356,16 +6360,16 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6373,7 +6377,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6396,13 +6400,13 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6453,7 +6457,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6471,7 +6475,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6485,7 +6489,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6511,10 +6515,10 @@
         <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>159</v>
@@ -6567,7 +6571,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6585,7 +6589,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6599,11 +6603,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6625,10 +6629,10 @@
         <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>159</v>
@@ -6683,7 +6687,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6715,7 +6719,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6741,10 +6745,10 @@
         <v>193</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6774,10 +6778,10 @@
         <v>197</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6795,7 +6799,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6810,10 +6814,10 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6827,7 +6831,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6850,13 +6854,13 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6907,7 +6911,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>86</v>
@@ -6922,10 +6926,10 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6939,7 +6943,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6965,10 +6969,10 @@
         <v>193</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6998,10 +7002,10 @@
         <v>197</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -7019,7 +7023,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7034,16 +7038,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7051,7 +7055,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7074,16 +7078,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7133,7 +7137,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7148,24 +7152,24 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7188,19 +7192,19 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7249,7 +7253,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7264,16 +7268,16 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7281,7 +7285,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7304,16 +7308,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7363,7 +7367,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7381,13 +7385,13 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7395,7 +7399,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7418,16 +7422,16 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7477,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7492,10 +7496,10 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7509,7 +7513,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7532,13 +7536,13 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7589,7 +7593,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7601,13 +7605,13 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7621,7 +7625,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7644,13 +7648,13 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7701,7 +7705,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7719,7 +7723,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7733,7 +7737,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7759,10 +7763,10 @@
         <v>131</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>159</v>
@@ -7815,7 +7819,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7833,7 +7837,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7847,11 +7851,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7873,10 +7877,10 @@
         <v>131</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>159</v>
@@ -7931,7 +7935,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7963,7 +7967,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7986,13 +7990,13 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8043,7 +8047,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8061,7 +8065,7 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8075,7 +8079,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8101,13 +8105,13 @@
         <v>193</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8137,7 +8141,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
@@ -8155,7 +8159,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8173,13 +8177,13 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8187,7 +8191,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8213,10 +8217,10 @@
         <v>193</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>196</v>
@@ -8249,7 +8253,7 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8267,7 +8271,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8285,13 +8289,13 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8299,7 +8303,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8325,16 +8329,16 @@
         <v>193</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8362,10 +8366,10 @@
         <v>197</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8383,7 +8387,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8401,13 +8405,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8415,7 +8419,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8438,13 +8442,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8495,7 +8499,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8513,7 +8517,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8527,7 +8531,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8553,10 +8557,10 @@
         <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>159</v>
@@ -8600,7 +8604,7 @@
         <v>134</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>77</v>
@@ -8609,7 +8613,7 @@
         <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8627,7 +8631,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8641,7 +8645,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8664,19 +8668,19 @@
         <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
@@ -8713,7 +8717,7 @@
         <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
@@ -8723,7 +8727,7 @@
         <v>135</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8741,13 +8745,13 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8755,10 +8759,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>77</v>
@@ -8780,19 +8784,19 @@
         <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -8821,7 +8825,7 @@
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8839,7 +8843,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8857,13 +8861,13 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8871,7 +8875,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8894,13 +8898,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8951,7 +8955,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8969,7 +8973,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8983,7 +8987,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9009,10 +9013,10 @@
         <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>159</v>
@@ -9056,7 +9060,7 @@
         <v>134</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>77</v>
@@ -9065,7 +9069,7 @@
         <v>135</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9083,7 +9087,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9097,7 +9101,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9123,23 +9127,23 @@
         <v>100</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>77</v>
@@ -9181,7 +9185,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9199,13 +9203,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9213,7 +9217,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9236,16 +9240,16 @@
         <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9295,7 +9299,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9313,13 +9317,13 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9327,7 +9331,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9353,14 +9357,14 @@
         <v>106</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9409,7 +9413,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9427,13 +9431,13 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9441,7 +9445,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9464,17 +9468,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9523,7 +9527,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9541,13 +9545,13 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9555,7 +9559,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9578,19 +9582,19 @@
         <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9639,7 +9643,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9657,13 +9661,13 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9671,10 +9675,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>77</v>
@@ -9696,19 +9700,19 @@
         <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9737,7 +9741,7 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -9755,7 +9759,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9773,13 +9777,13 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9787,7 +9791,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9810,13 +9814,13 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9867,7 +9871,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -9885,7 +9889,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -9899,7 +9903,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9925,10 +9929,10 @@
         <v>131</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>159</v>
@@ -9972,7 +9976,7 @@
         <v>134</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>77</v>
@@ -9981,7 +9985,7 @@
         <v>135</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -9999,7 +10003,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10013,7 +10017,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10039,23 +10043,23 @@
         <v>100</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="R72" t="s" s="2">
         <v>77</v>
@@ -10097,7 +10101,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10115,13 +10119,13 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10129,7 +10133,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10152,16 +10156,16 @@
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10211,7 +10215,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10229,13 +10233,13 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10243,7 +10247,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10269,14 +10273,14 @@
         <v>106</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -10325,7 +10329,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10343,13 +10347,13 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10357,7 +10361,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10380,17 +10384,17 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10439,7 +10443,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10457,13 +10461,13 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10471,7 +10475,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10494,19 +10498,19 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10555,7 +10559,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10573,13 +10577,13 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10587,7 +10591,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10610,19 +10614,19 @@
         <v>87</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>77</v>
@@ -10671,7 +10675,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -10689,13 +10693,13 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10703,7 +10707,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10726,16 +10730,16 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10785,7 +10789,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -10797,19 +10801,19 @@
         <v>142</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -10817,7 +10821,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10840,16 +10844,16 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10897,7 +10901,7 @@
         <v>215</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -10915,13 +10919,13 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -10929,10 +10933,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>77</v>
@@ -10954,16 +10958,16 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11013,7 +11017,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11025,13 +11029,13 @@
         <v>142</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11045,10 +11049,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>77</v>
@@ -11070,16 +11074,16 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11129,7 +11133,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11141,19 +11145,19 @@
         <v>142</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11161,7 +11165,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11184,16 +11188,16 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11243,7 +11247,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11261,7 +11265,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="483">
   <si>
     <t>Property</t>
   </si>
@@ -677,10 +677,6 @@
   </si>
   <si>
     <t>MedicationAdministration.medication[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
   </si>
   <si>
     <t>What medication was supplied　医薬品</t>
@@ -701,6 +697,12 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
+    <t>Codes identifying substance or product that can be administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+  </si>
+  <si>
     <t xml:space="preserve">type:$this}
 </t>
   </si>
@@ -718,18 +720,6 @@
   </si>
   <si>
     <t>RXA-5-Administered Code</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t>What was administered</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
   </si>
   <si>
     <t>medicationCodeableConcept</t>
@@ -1878,7 +1868,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN82"/>
+  <dimension ref="A1:AN81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4230,16 +4220,16 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4265,26 +4255,26 @@
         <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>209</v>
@@ -4302,16 +4292,16 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4322,17 +4312,17 @@
         <v>209</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>77</v>
@@ -4344,16 +4334,16 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4379,13 +4369,13 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4418,16 +4408,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4435,11 +4425,9 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B23" t="s" s="2">
         <v>224</v>
       </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4457,20 +4445,18 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4495,13 +4481,13 @@
         <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
@@ -4519,10 +4505,10 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4531,19 +4517,19 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4551,18 +4537,18 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>77</v>
@@ -4574,15 +4560,17 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -4619,37 +4607,37 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4663,15 +4651,15 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>79</v>
@@ -4683,21 +4671,23 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4733,19 +4723,19 @@
         <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4757,19 +4747,19 @@
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4777,7 +4767,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4785,10 +4775,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
@@ -4797,23 +4787,19 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4861,31 +4847,31 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4893,18 +4879,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>77</v>
@@ -4916,15 +4902,17 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4961,37 +4949,37 @@
         <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5005,18 +4993,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
@@ -5025,21 +5013,23 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5075,43 +5065,43 @@
         <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5119,7 +5109,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5127,7 +5117,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
@@ -5142,20 +5132,18 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5203,7 +5191,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5221,13 +5209,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5235,7 +5223,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5243,7 +5231,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>86</v>
@@ -5258,18 +5246,18 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5317,7 +5305,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5335,13 +5323,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5349,7 +5337,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5357,7 +5345,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>86</v>
@@ -5372,17 +5360,17 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5431,7 +5419,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5449,13 +5437,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5463,7 +5451,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5486,17 +5474,19 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="N32" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5545,7 +5535,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5563,13 +5553,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5577,7 +5567,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5600,19 +5590,19 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5661,7 +5651,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5679,13 +5669,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5693,7 +5683,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5701,7 +5691,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>86</v>
@@ -5716,20 +5706,18 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>228</v>
+        <v>293</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5780,7 +5768,7 @@
         <v>292</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>86</v>
@@ -5792,16 +5780,16 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5809,7 +5797,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5817,7 +5805,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>86</v>
@@ -5829,19 +5817,19 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5891,10 +5879,10 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
@@ -5906,16 +5894,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5923,7 +5911,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5934,7 +5922,7 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -5946,16 +5934,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6005,13 +5993,13 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
@@ -6020,16 +6008,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6037,7 +6025,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6045,10 +6033,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -6057,19 +6045,19 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6119,13 +6107,13 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -6134,16 +6122,16 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6151,7 +6139,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6159,10 +6147,10 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>77</v>
@@ -6174,17 +6162,15 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6233,13 +6219,13 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
@@ -6248,16 +6234,16 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6265,7 +6251,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6276,7 +6262,7 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>77</v>
@@ -6285,16 +6271,16 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>327</v>
+        <v>225</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>328</v>
+        <v>226</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>329</v>
+        <v>227</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6345,31 +6331,31 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>326</v>
+        <v>228</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>331</v>
+        <v>229</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6377,18 +6363,18 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6400,15 +6386,17 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6457,25 +6445,25 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6489,11 +6477,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>156</v>
+        <v>334</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6506,24 +6494,26 @@
         <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>234</v>
+        <v>335</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>235</v>
+        <v>336</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6571,7 +6561,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>237</v>
+        <v>337</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6589,7 +6579,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>232</v>
+        <v>129</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6603,43 +6593,39 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6663,13 +6649,13 @@
         <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6687,25 +6673,25 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>129</v>
+        <v>344</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6719,7 +6705,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6727,7 +6713,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>86</v>
@@ -6739,16 +6725,16 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>193</v>
+        <v>346</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6775,34 +6761,34 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="AF43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -6814,10 +6800,10 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6831,7 +6817,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6839,10 +6825,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
@@ -6851,16 +6837,16 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>349</v>
+        <v>193</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6887,13 +6873,13 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -6911,13 +6897,13 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
@@ -6926,16 +6912,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6943,7 +6929,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6966,15 +6952,17 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>193</v>
+        <v>360</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -6999,13 +6987,13 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -7023,7 +7011,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7038,24 +7026,24 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7066,7 +7054,7 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -7078,18 +7066,20 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7137,13 +7127,13 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
@@ -7152,24 +7142,24 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7180,7 +7170,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7192,20 +7182,18 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7253,13 +7241,13 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
@@ -7268,16 +7256,16 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7285,7 +7273,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7308,16 +7296,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>299</v>
+        <v>387</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7367,7 +7355,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7382,16 +7370,16 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7399,7 +7387,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7410,7 +7398,7 @@
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
@@ -7422,17 +7410,15 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>387</v>
+        <v>324</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
@@ -7481,25 +7467,25 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>393</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7513,7 +7499,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7536,13 +7522,13 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>327</v>
+        <v>225</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>394</v>
+        <v>226</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>395</v>
+        <v>227</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7593,7 +7579,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>393</v>
+        <v>228</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7605,13 +7591,13 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>396</v>
+        <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>397</v>
+        <v>229</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7625,18 +7611,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -7648,15 +7634,17 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -7705,25 +7693,25 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7737,11 +7725,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>156</v>
+        <v>334</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7754,24 +7742,26 @@
         <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>234</v>
+        <v>335</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>235</v>
+        <v>336</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7819,7 +7809,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>237</v>
+        <v>337</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7837,7 +7827,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>232</v>
+        <v>129</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7851,43 +7841,39 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>338</v>
+        <v>399</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7935,25 +7921,25 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>340</v>
+        <v>398</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>129</v>
+        <v>401</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7967,7 +7953,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7990,15 +7976,17 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8023,13 +8011,11 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -8047,7 +8033,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8065,13 +8051,13 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8079,7 +8065,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8105,13 +8091,13 @@
         <v>193</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>408</v>
+        <v>196</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8141,25 +8127,25 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8177,13 +8163,13 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8191,7 +8177,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8217,15 +8203,17 @@
         <v>193</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8249,29 +8237,31 @@
         <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="Y56" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8289,13 +8279,13 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8303,7 +8293,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8326,20 +8316,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>419</v>
+        <v>226</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8363,13 +8349,13 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8387,7 +8373,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>418</v>
+        <v>228</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8399,19 +8385,19 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>424</v>
+        <v>229</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8419,18 +8405,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8442,15 +8428,17 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8487,37 +8475,37 @@
         <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8531,11 +8519,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8551,21 +8539,23 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>234</v>
+        <v>426</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>235</v>
+        <v>427</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8601,11 +8591,9 @@
         <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="AB59" s="2"/>
       <c r="AC59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8613,7 +8601,7 @@
         <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8625,19 +8613,19 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8645,9 +8633,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="C60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8656,7 +8646,7 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -8668,19 +8658,19 @@
         <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>243</v>
+        <v>434</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
@@ -8705,29 +8695,29 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AB60" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8745,13 +8735,13 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8759,11 +8749,9 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8781,23 +8769,19 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>434</v>
+        <v>226</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8821,11 +8805,13 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X61" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y61" t="s" s="2">
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8843,31 +8829,31 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8875,18 +8861,18 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -8898,15 +8884,17 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>77</v>
@@ -8943,37 +8931,37 @@
         <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8987,18 +8975,18 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -9007,27 +8995,29 @@
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>77</v>
+        <v>439</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>77</v>
@@ -9057,43 +9047,43 @@
         <v>77</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9101,7 +9091,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9109,7 +9099,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>86</v>
@@ -9124,26 +9114,24 @@
         <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>442</v>
+        <v>77</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>77</v>
@@ -9185,7 +9173,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9203,13 +9191,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9217,7 +9205,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9240,18 +9228,18 @@
         <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9299,7 +9287,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9317,13 +9305,13 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9331,7 +9319,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9354,17 +9342,17 @@
         <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9413,7 +9401,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9431,13 +9419,13 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9445,7 +9433,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9468,17 +9456,19 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="N67" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9527,7 +9517,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9545,13 +9535,13 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9559,9 +9549,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="C68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9582,19 +9574,19 @@
         <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>280</v>
+        <v>445</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>281</v>
+        <v>446</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>282</v>
+        <v>433</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>283</v>
+        <v>434</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9619,13 +9611,11 @@
         <v>77</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>77</v>
+        <v>447</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9643,13 +9633,13 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>77</v>
@@ -9661,13 +9651,13 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9675,11 +9665,9 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9697,23 +9685,19 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>448</v>
+        <v>226</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9737,11 +9721,13 @@
         <v>77</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X69" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y69" t="s" s="2">
-        <v>450</v>
+        <v>77</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -9759,31 +9745,31 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9791,18 +9777,18 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -9814,15 +9800,17 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -9859,37 +9847,37 @@
         <v>77</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -9903,18 +9891,18 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>77</v>
@@ -9923,27 +9911,29 @@
         <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>77</v>
+        <v>448</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>77</v>
@@ -9973,43 +9963,43 @@
         <v>77</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10017,7 +10007,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10025,7 +10015,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>86</v>
@@ -10040,26 +10030,24 @@
         <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="R72" t="s" s="2">
         <v>77</v>
@@ -10101,7 +10089,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10119,13 +10107,13 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10133,7 +10121,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10156,18 +10144,18 @@
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10215,7 +10203,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10233,13 +10221,13 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10247,7 +10235,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10270,17 +10258,17 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -10329,7 +10317,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10347,13 +10335,13 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10361,7 +10349,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10384,17 +10372,19 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="N75" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10443,7 +10433,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10461,13 +10451,13 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10475,7 +10465,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10498,19 +10488,19 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>281</v>
+        <v>451</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>282</v>
+        <v>452</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>283</v>
+        <v>453</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10559,7 +10549,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10577,13 +10567,13 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10591,7 +10581,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10611,23 +10601,21 @@
         <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>228</v>
+        <v>455</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10675,7 +10663,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>292</v>
+        <v>454</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -10684,22 +10672,22 @@
         <v>86</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>98</v>
+        <v>459</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>293</v>
+        <v>460</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>294</v>
+        <v>461</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10707,7 +10695,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10730,16 +10718,16 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10777,19 +10765,17 @@
         <v>77</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="AB78" s="2"/>
       <c r="AC78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -10798,22 +10784,22 @@
         <v>86</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>462</v>
+        <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -10821,9 +10807,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B79" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="C79" t="s" s="2">
         <v>77</v>
       </c>
@@ -10844,16 +10832,16 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10891,17 +10879,19 @@
         <v>77</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AB79" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -10910,22 +10900,22 @@
         <v>86</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>98</v>
+        <v>473</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>471</v>
+        <v>129</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -10933,10 +10923,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>77</v>
@@ -10958,16 +10948,16 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11017,7 +11007,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11029,19 +11019,19 @@
         <v>142</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>129</v>
+        <v>461</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>77</v>
@@ -11049,11 +11039,9 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11062,7 +11050,7 @@
         <v>78</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>77</v>
@@ -11074,16 +11062,16 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>479</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11133,147 +11121,33 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>462</v>
+        <v>98</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>464</v>
+        <v>77</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN82" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration.xlsx
@@ -1497,7 +1497,7 @@
   </si>
   <si>
     <t>Ratio
-Quantity {SimpleQuantity}</t>
+Quantity</t>
   </si>
   <si>
     <t>Dose quantity per unit of time　単位時間あたりの用量</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration.xlsx
@@ -1521,14 +1521,14 @@
     <t>rateRatio</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio}
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerPeriod}
 </t>
   </si>
   <si>
-    <t>単位時間あたり薬剤の投与量</t>
-  </si>
-  <si>
-    <t>単位時間あたり薬剤の投与量について薬剤単位をバインディングした型である。</t>
+    <t>単位時間内での薬剤の容量（体積）</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】単位時間内での薬剤の容量（体積）、すなわち投与速度を記述する。単位はUCUMを使用する。</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="463">
   <si>
     <t>Property</t>
   </si>
@@ -731,215 +731,6 @@
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
-    <t>MedicationAdministration.medication[x].id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system コード集で定義された医薬品コード</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.
-コード集で定義された医薬品コードへの情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
     <t>MedicationAdministration.subject</t>
   </si>
   <si>
@@ -1073,7 +864,32 @@
     <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>MedicationAdministration.performer.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1378,9 +1194,16 @@
     <t>MedicationAdministration.dosage.method.extension</t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.method.coding</t>
   </si>
   <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
     <t>Code defined by a terminology system</t>
   </si>
   <si>
@@ -1388,12 +1211,24 @@
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
     <t>unitDigit1</t>
   </si>
   <si>
@@ -1421,21 +1256,121 @@
     <t>MedicationAdministration.dosage.method.coding.system</t>
   </si>
   <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
     <t>urn:oid:1.2.392.200250.2.2.20.30</t>
   </si>
   <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.method.coding.version</t>
   </si>
   <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.method.coding.code</t>
   </si>
   <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.method.coding.display</t>
   </si>
   <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.method.coding.userSelected</t>
   </si>
   <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
     <t>unitDigit2</t>
   </si>
   <si>
@@ -1464,6 +1399,15 @@
   </si>
   <si>
     <t>ターミノロジー由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.dose</t>
@@ -1496,8 +1440,8 @@
     <t>MedicationAdministration.dosage.rate[x]</t>
   </si>
   <si>
-    <t>Ratio
-Quantity</t>
+    <t xml:space="preserve">Ratio
+</t>
   </si>
   <si>
     <t>Dose quantity per unit of time　単位時間あたりの用量</t>
@@ -1528,7 +1472,7 @@
     <t>単位時間内での薬剤の容量（体積）</t>
   </si>
   <si>
-    <t>【JP Core仕様】単位時間内での薬剤の容量（体積）、すなわち投与速度を記述する。単位はUCUMを使用する。</t>
+    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1536,12 +1480,6 @@
   </si>
   <si>
     <t>RTO</t>
-  </si>
-  <si>
-    <t>rateQuantity</t>
-  </si>
-  <si>
-    <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -1868,7 +1806,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN81"/>
+  <dimension ref="A1:AN69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4433,7 +4371,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>86</v>
@@ -4445,7 +4383,7 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>225</v>
@@ -4456,7 +4394,9 @@
       <c r="L23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M23" s="2"/>
+      <c r="M23" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4505,10 +4445,10 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4517,19 +4457,19 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4537,18 +4477,18 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>77</v>
@@ -4560,16 +4500,16 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4607,43 +4547,43 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4651,7 +4591,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4659,7 +4599,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>79</v>
@@ -4671,23 +4611,21 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4753,13 +4691,13 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4767,7 +4705,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4775,7 +4713,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>86</v>
@@ -4787,18 +4725,20 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4847,10 +4787,10 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -4859,19 +4799,19 @@
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4879,11 +4819,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4899,20 +4839,18 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4949,19 +4887,19 @@
         <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4973,19 +4911,19 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4993,7 +4931,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5001,7 +4939,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>86</v>
@@ -5013,23 +4951,19 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5077,7 +5011,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5089,19 +5023,19 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5109,18 +5043,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
@@ -5129,19 +5063,19 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
+        <v>159</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5191,31 +5125,31 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5223,40 +5157,42 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>264</v>
+        <v>160</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5305,31 +5241,31 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>266</v>
+        <v>129</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5337,7 +5273,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5357,21 +5293,19 @@
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>271</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5395,13 +5329,13 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -5419,7 +5353,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5434,16 +5368,16 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5451,7 +5385,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5459,7 +5393,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
@@ -5474,20 +5408,16 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5535,10 +5465,10 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>86</v>
@@ -5550,16 +5480,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5567,7 +5497,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5578,7 +5508,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5587,23 +5517,19 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5627,13 +5553,13 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
@@ -5651,13 +5577,13 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
@@ -5666,16 +5592,16 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5683,7 +5609,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5691,10 +5617,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5703,19 +5629,19 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5765,13 +5691,13 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
@@ -5780,24 +5706,24 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5820,18 +5746,20 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5879,7 +5807,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5894,16 +5822,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5911,7 +5839,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5934,16 +5862,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>296</v>
+        <v>228</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5993,7 +5921,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6011,13 +5939,13 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6025,7 +5953,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6033,10 +5961,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -6045,19 +5973,19 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6107,13 +6035,13 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -6122,16 +6050,16 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6139,7 +6067,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6150,7 +6078,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>77</v>
@@ -6159,16 +6087,16 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>324</v>
+        <v>256</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6219,31 +6147,31 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>333</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6251,7 +6179,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6274,13 +6202,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6331,7 +6259,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6349,7 +6277,7 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6363,7 +6291,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6389,10 +6317,10 @@
         <v>131</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>159</v>
@@ -6445,7 +6373,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6463,7 +6391,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6477,11 +6405,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6503,10 +6431,10 @@
         <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>336</v>
+        <v>276</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>159</v>
@@ -6561,7 +6489,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>337</v>
+        <v>277</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6616,7 +6544,7 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>339</v>
@@ -6649,13 +6577,13 @@
         <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6688,10 +6616,10 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6705,7 +6633,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6713,7 +6641,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>86</v>
@@ -6725,18 +6653,20 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>346</v>
+        <v>193</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6761,13 +6691,11 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6785,10 +6713,10 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -6800,16 +6728,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6817,7 +6745,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6828,7 +6756,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
@@ -6843,12 +6771,14 @@
         <v>193</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6873,13 +6803,11 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -6897,13 +6825,13 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
@@ -6912,16 +6840,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6929,7 +6857,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6940,7 +6868,7 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -6952,18 +6880,20 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>360</v>
+        <v>193</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6987,13 +6917,13 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -7011,13 +6941,13 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
@@ -7026,24 +6956,24 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7066,20 +6996,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>369</v>
+        <v>264</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>370</v>
+        <v>265</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7127,7 +7053,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>368</v>
+        <v>267</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7139,19 +7065,19 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>374</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>375</v>
+        <v>268</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7159,11 +7085,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7182,16 +7108,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>378</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>379</v>
+        <v>270</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>380</v>
+        <v>271</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>296</v>
+        <v>159</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7229,19 +7155,19 @@
         <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>377</v>
+        <v>272</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7253,19 +7179,19 @@
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>381</v>
+        <v>268</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>382</v>
+        <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7273,7 +7199,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7293,21 +7219,23 @@
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7343,19 +7271,17 @@
         <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7370,16 +7296,16 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7387,9 +7313,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7407,19 +7335,23 @@
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7443,13 +7375,11 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>381</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7467,31 +7397,31 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>393</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7499,7 +7429,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7522,13 +7452,13 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7579,7 +7509,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7597,7 +7527,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7611,7 +7541,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7637,10 +7567,10 @@
         <v>131</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>159</v>
@@ -7681,19 +7611,19 @@
         <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7711,7 +7641,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7725,49 +7655,49 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>159</v>
+        <v>387</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>160</v>
+        <v>388</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>77</v>
@@ -7809,31 +7739,31 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>337</v>
+        <v>390</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>129</v>
+        <v>391</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7841,7 +7771,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7861,18 +7791,20 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -7921,7 +7853,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7939,13 +7871,13 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>77</v>
+        <v>399</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7953,7 +7885,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7973,21 +7905,21 @@
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8011,11 +7943,13 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X54" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y54" t="s" s="2">
-        <v>406</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -8033,7 +7967,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8051,13 +7985,13 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8065,7 +7999,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8085,21 +8019,21 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8123,11 +8057,13 @@
         <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
@@ -8145,7 +8081,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8163,13 +8099,13 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8177,7 +8113,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8197,22 +8133,22 @@
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>193</v>
+        <v>415</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>416</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>77</v>
@@ -8237,31 +8173,31 @@
         <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8293,9 +8229,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8313,19 +8251,23 @@
         <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>225</v>
+        <v>367</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>226</v>
+        <v>424</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8349,13 +8291,11 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8373,31 +8313,31 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>228</v>
+        <v>373</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>229</v>
+        <v>374</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8405,18 +8345,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8428,17 +8368,15 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>131</v>
+        <v>264</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8475,37 +8413,37 @@
         <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8519,11 +8457,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>383</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8539,23 +8477,21 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>427</v>
+        <v>271</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8591,9 +8527,11 @@
         <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AB59" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="AC59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8601,7 +8539,7 @@
         <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8613,19 +8551,19 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8633,17 +8571,15 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>86</v>
@@ -8658,26 +8594,26 @@
         <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>431</v>
+        <v>385</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>433</v>
+        <v>387</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>434</v>
+        <v>388</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>77</v>
+        <v>427</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>77</v>
@@ -8695,11 +8631,13 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X60" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y60" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8717,13 +8655,13 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>241</v>
+        <v>390</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>77</v>
@@ -8735,13 +8673,13 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>242</v>
+        <v>391</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>243</v>
+        <v>392</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8749,7 +8687,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>393</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8769,18 +8707,20 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>226</v>
+        <v>394</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -8829,7 +8769,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>228</v>
+        <v>397</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8841,19 +8781,19 @@
         <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>229</v>
+        <v>398</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>77</v>
+        <v>399</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8861,18 +8801,18 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -8881,21 +8821,21 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>231</v>
+        <v>401</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8931,43 +8871,43 @@
         <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>234</v>
+        <v>404</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>229</v>
+        <v>405</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -8975,7 +8915,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8983,7 +8923,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>86</v>
@@ -8998,26 +8938,24 @@
         <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>247</v>
+        <v>408</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>77</v>
@@ -9059,7 +8997,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>251</v>
+        <v>411</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9077,13 +9015,13 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>252</v>
+        <v>412</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>253</v>
+        <v>413</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9091,7 +9029,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9114,18 +9052,20 @@
         <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>225</v>
+        <v>415</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>255</v>
+        <v>416</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>256</v>
+        <v>417</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9173,7 +9113,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>258</v>
+        <v>420</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9191,13 +9131,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>259</v>
+        <v>421</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>260</v>
+        <v>422</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9205,7 +9145,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9228,17 +9168,19 @@
         <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>262</v>
+        <v>429</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="N65" t="s" s="2">
-        <v>264</v>
+        <v>432</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9287,7 +9229,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>265</v>
+        <v>433</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9305,13 +9247,13 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>266</v>
+        <v>434</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>267</v>
+        <v>435</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9319,7 +9261,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9339,21 +9281,21 @@
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>225</v>
+        <v>437</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>269</v>
+        <v>438</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9401,7 +9343,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>272</v>
+        <v>436</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9410,22 +9352,22 @@
         <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>98</v>
+        <v>441</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>273</v>
+        <v>442</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>274</v>
+        <v>443</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9433,7 +9375,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9453,23 +9395,21 @@
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>276</v>
+        <v>445</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>277</v>
+        <v>446</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>278</v>
+        <v>447</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9505,19 +9445,17 @@
         <v>77</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="AB67" s="2"/>
       <c r="AC67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>281</v>
+        <v>444</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9535,13 +9473,13 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>283</v>
+        <v>450</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9549,10 +9487,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>77</v>
@@ -9571,23 +9509,21 @@
         <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>236</v>
+        <v>452</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9611,11 +9547,13 @@
         <v>77</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X68" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y68" t="s" s="2">
-        <v>447</v>
+        <v>77</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9633,31 +9571,31 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>241</v>
+        <v>444</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>98</v>
+        <v>455</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>242</v>
+        <v>456</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9665,7 +9603,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9676,7 +9614,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -9688,15 +9626,17 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>225</v>
+        <v>458</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>226</v>
+        <v>459</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9745,25 +9685,25 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>228</v>
+        <v>457</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>229</v>
+        <v>462</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9772,1382 +9712,6 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AB78" s="2"/>
-      <c r="AC78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN81" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration.xlsx
@@ -1469,7 +1469,7 @@
 </t>
   </si>
   <si>
-    <t>単位時間内での薬剤の容量（体積）</t>
+    <t>単位時間内での薬剤の容量</t>
   </si>
   <si>
     <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
